--- a/medicine/Mort/Cimetière_de_Bercy/Cimetière_de_Bercy.xlsx
+++ b/medicine/Mort/Cimetière_de_Bercy/Cimetière_de_Bercy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Bercy</t>
+          <t>Cimetière_de_Bercy</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Bercy est un cimetière de Paris.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Bercy</t>
+          <t>Cimetière_de_Bercy</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il se situe 329, rue de Charenton, à l'angle avec l'avenue du Général-Michel-Bizot, dans le 12e arrondissement de Paris (quartier de Picpus). D'une superficie d'environ 6 100 m2, il abrite 1 120 tombes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se situe 329, rue de Charenton, à l'angle avec l'avenue du Général-Michel-Bizot, dans le 12e arrondissement de Paris (quartier de Picpus). D'une superficie d'environ 6 100 m2, il abrite 1 120 tombes.
 Il est directement accessible par les lignes 8 du métro et ligne 3a du tramway d'Île-de-France à la station Porte de Charenton.
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Bercy</t>
+          <t>Cimetière_de_Bercy</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,13 +557,15 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis 1643 les habitants de Bercy, primitivement paroissiens de Saint-Paul-Saint-Louis, sont inhumés au cimetière Sainte-Marguerite dont l'église est devenue une succursale de Saint-Paul[2].
-Un cimetière est ouvert en 1816 dans l'ancienne commune de Bercy. Il est intégré à Paris en 1860. Lors de cette annexion, il est plus vaste qu’aujourd’hui puisqu'il s'étend sur « 1 hectare 7 ares 90 centiares », soit 1,079 hectare : en 1862, l'ouverture de l'avenue du Général-Michel-Bizot l'ampute de sa partie orientale[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 1643 les habitants de Bercy, primitivement paroissiens de Saint-Paul-Saint-Louis, sont inhumés au cimetière Sainte-Marguerite dont l'église est devenue une succursale de Saint-Paul.
+Un cimetière est ouvert en 1816 dans l'ancienne commune de Bercy. Il est intégré à Paris en 1860. Lors de cette annexion, il est plus vaste qu’aujourd’hui puisqu'il s'étend sur « 1 hectare 7 ares 90 centiares », soit 1,079 hectare : en 1862, l'ouverture de l'avenue du Général-Michel-Bizot l'ampute de sa partie orientale.
 Il se situe près de la porte de Charenton, des voies ferrées de la gare de Lyon et de Petite-Ceinture, jadis en correspondance à la gare de Bercy-Ceinture désaffectée mais toujours en place, et du boulevard Poniatowski.
 Fin mai 1871, pendant la Semaine sanglante, les corps d'environ 400 personnes fusillées sans jugement à la prison de Mazas pour lien avec la Commune sont jetés dans un puits du cimetière. L'absence de procédure d'inhumation rend impossible l'identification des victimes.
-En 2002, Michel Dansel n’apprécie guère ce cimetière : « De tous les champs de repos intra-muros, celui de Bercy [...] mérite au moins trois étoiles dans le genre sinistre [...] il ne retient même pas l’attention par la baroquie des sépultures qu’il abrite[pertinence contestée][4] »
+En 2002, Michel Dansel n’apprécie guère ce cimetière : « De tous les champs de repos intra-muros, celui de Bercy [...] mérite au moins trois étoiles dans le genre sinistre [...] il ne retient même pas l’attention par la baroquie des sépultures qu’il abrite[pertinence contestée] »
 </t>
         </is>
       </c>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Bercy</t>
+          <t>Cimetière_de_Bercy</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,6 +595,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
